--- a/SoMs/BW2099/BW2099_R1M1E1_IO_TABLE.xlsx
+++ b/SoMs/BW2099/BW2099_R1M1E1_IO_TABLE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-11025" yWindow="6465" windowWidth="24570" windowHeight="17130" activeTab="1"/>
+    <workbookView xWindow="-11025" yWindow="6465" windowWidth="24570" windowHeight="17130"/>
   </bookViews>
   <sheets>
     <sheet name="CONNECTOR A" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="291">
   <si>
     <t>Pin #</t>
   </si>
@@ -443,9 +443,6 @@
     <t>Camera C MIPI clock (+) / 0.5ps intra-pair tuning / 1ps inter-pair tuning / 100ohm +/-10%</t>
   </si>
   <si>
-    <t>1099EMB_R1M0E1 INTERFACE</t>
-  </si>
-  <si>
     <t>SGPIO_1</t>
   </si>
   <si>
@@ -903,6 +900,12 @@
   </si>
   <si>
     <t>BOOT</t>
+  </si>
+  <si>
+    <t>2099EMB_R1M1E1 INTERFACE CONNECTOR A</t>
+  </si>
+  <si>
+    <t>2099EMB_R1M1E1 INTERFACE CONNECTOR B</t>
   </si>
 </sst>
 </file>
@@ -1288,7 +1291,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1298,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1318,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>136</v>
+        <v>289</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1335,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -1356,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1406,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1"/>
       <c r="H6" s="1"/>
@@ -1414,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,14 +1440,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1491,14 +1494,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,14 +1524,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1575,14 +1578,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -1605,14 +1608,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -1659,14 +1662,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -1689,14 +1692,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -1746,7 +1749,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>44</v>
@@ -1804,16 +1807,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -1839,7 +1842,7 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>55</v>
@@ -1862,7 +1865,7 @@
         <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="1"/>
       <c r="H36" s="1"/>
@@ -1881,7 +1884,7 @@
         <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1"/>
       <c r="H37" t="s">
@@ -1899,10 +1902,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
@@ -1935,7 +1938,7 @@
         <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1943,10 +1946,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" t="s">
         <v>68</v>
@@ -1982,7 +1985,7 @@
         <v>72</v>
       </c>
       <c r="J41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1990,10 +1993,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
@@ -2032,7 +2035,7 @@
         <v>72</v>
       </c>
       <c r="J43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2043,7 +2046,7 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
@@ -2058,12 +2061,12 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2083,12 +2086,12 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2096,14 +2099,14 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2111,12 +2114,12 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2131,7 +2134,7 @@
         <v>11</v>
       </c>
       <c r="J50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2139,12 +2142,12 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2164,12 +2167,12 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2177,12 +2180,12 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2190,12 +2193,12 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2203,12 +2206,12 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2216,12 +2219,12 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2229,12 +2232,12 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,12 +2245,12 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2255,12 +2258,12 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2268,10 +2271,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>64</v>
@@ -2288,10 +2291,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
         <v>84</v>
@@ -2309,10 +2312,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
         <v>86</v>
@@ -2338,7 +2341,7 @@
         <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>15</v>
@@ -2352,10 +2355,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
         <v>90</v>
@@ -2384,7 +2387,7 @@
         <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>15</v>
@@ -2401,7 +2404,7 @@
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
@@ -2419,7 +2422,7 @@
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H68" t="s">
         <v>102</v>
@@ -2436,10 +2439,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H69" t="s">
         <v>102</v>
@@ -2459,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H70" t="s">
         <v>102</v>
@@ -2476,10 +2479,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H71" t="s">
         <v>102</v>
@@ -2494,10 +2497,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>102</v>
@@ -2543,7 +2546,7 @@
         <v>104</v>
       </c>
       <c r="C75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>44</v>
@@ -2563,7 +2566,7 @@
         <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>15</v>
@@ -2604,7 +2607,7 @@
         <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H79" t="s">
         <v>56</v>
@@ -2624,7 +2627,7 @@
         <v>76</v>
       </c>
       <c r="C80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
         <v>76</v>
@@ -2636,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2647,7 +2650,7 @@
         <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H81" t="s">
         <v>56</v>
@@ -2667,7 +2670,7 @@
         <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
         <v>92</v>
@@ -2679,7 +2682,7 @@
         <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3003,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,7 +3023,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3040,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -3061,7 +3064,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3327,17 +3330,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N19" s="1"/>
       <c r="T19" s="1"/>
@@ -3348,14 +3351,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N20" s="1"/>
       <c r="T20" s="1"/>
@@ -3366,17 +3369,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3384,14 +3387,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3399,17 +3402,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -3417,14 +3420,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3432,17 +3435,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3450,14 +3453,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3465,17 +3468,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3483,14 +3486,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3498,17 +3501,17 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3516,17 +3519,17 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3562,7 +3565,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3571,7 +3574,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3591,7 +3594,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3600,7 +3603,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3608,10 +3611,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D36" s="1"/>
       <c r="H36" t="s">
@@ -3621,7 +3624,7 @@
         <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3629,7 +3632,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3638,7 +3641,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3646,10 +3649,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D38" s="1"/>
       <c r="H38" t="s">
@@ -3659,7 +3662,7 @@
         <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3667,7 +3670,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3676,7 +3679,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3696,7 +3699,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3705,7 +3708,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3725,7 +3728,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3734,7 +3737,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3742,10 +3745,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -3760,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3768,7 +3771,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3777,7 +3780,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3785,10 +3788,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>18</v>
@@ -3803,7 +3806,7 @@
         <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3811,7 +3814,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3820,7 +3823,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3840,7 +3843,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3849,7 +3852,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K49" s="1"/>
     </row>
@@ -3858,17 +3861,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" t="s">
         <v>217</v>
-      </c>
-      <c r="C50" t="s">
-        <v>218</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K50" s="1"/>
     </row>
@@ -3877,7 +3880,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3885,7 +3888,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K51" s="1"/>
     </row>
@@ -3894,17 +3897,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K52" s="1"/>
     </row>
@@ -3913,7 +3916,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3921,7 +3924,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K53" s="1"/>
     </row>
@@ -3930,17 +3933,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K54" s="1"/>
     </row>
@@ -3949,7 +3952,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3957,7 +3960,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K55" s="1"/>
     </row>
@@ -3966,17 +3969,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K56" s="1"/>
     </row>
@@ -3985,7 +3988,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3993,7 +3996,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K57" s="1"/>
     </row>
@@ -4002,17 +4005,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K58" s="1"/>
     </row>
@@ -4021,13 +4024,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K59" s="1"/>
     </row>
@@ -4036,17 +4039,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K60" s="1"/>
     </row>
@@ -4055,13 +4058,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K61" s="1"/>
     </row>
@@ -4070,17 +4073,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K62" s="1"/>
     </row>
@@ -4102,17 +4105,17 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -4120,14 +4123,14 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -4135,10 +4138,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1" t="s">
@@ -4150,14 +4153,14 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -4165,10 +4168,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1" t="s">
@@ -4192,10 +4195,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1" t="s">
@@ -4207,14 +4210,14 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4222,10 +4225,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="1" t="s">
@@ -4237,14 +4240,14 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4252,10 +4255,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="1" t="s">
@@ -4279,10 +4282,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="1" t="s">
@@ -4294,14 +4297,14 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4309,12 +4312,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4322,13 +4325,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J79" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4358,14 +4361,14 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J82" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4373,15 +4376,15 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4402,15 +4405,15 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4418,7 +4421,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
@@ -4446,7 +4449,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
@@ -4487,15 +4490,15 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4503,7 +4506,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
@@ -4518,15 +4521,15 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J93" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4534,7 +4537,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
@@ -4549,15 +4552,15 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4578,15 +4581,15 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4594,7 +4597,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
@@ -4609,15 +4612,15 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4625,7 +4628,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
@@ -4640,15 +4643,15 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">

--- a/SoMs/BW2099/BW2099_R1M1E1_IO_TABLE.xlsx
+++ b/SoMs/BW2099/BW2099_R1M1E1_IO_TABLE.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrianLuxonis\Documents\GitHub\depthai-hardware\SoMs\BW2099\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB560F9-D081-4D55-8A13-BA1B1BF111A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11025" yWindow="6465" windowWidth="24570" windowHeight="17130"/>
+    <workbookView xWindow="7120" yWindow="3900" windowWidth="20810" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONNECTOR A" sheetId="2" r:id="rId1"/>
@@ -19,15 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -911,7 +908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1291,32 +1288,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="96.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
+    <col min="10" max="10" width="96.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>289</v>
       </c>
@@ -1330,7 +1327,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1359,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1375,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1388,7 +1385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1404,7 +1401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1420,7 +1417,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1435,7 +1432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1462,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1489,7 +1486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1504,7 +1501,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1519,7 +1516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1534,7 +1531,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1558,7 +1555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1573,7 +1570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1588,7 +1585,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1603,7 +1600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1618,7 +1615,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1642,7 +1639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1657,7 +1654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1672,7 +1669,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1687,7 +1684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1702,7 +1699,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1714,7 +1711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1726,7 +1723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1741,7 +1738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1761,7 +1758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1776,7 +1773,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1790,7 +1787,7 @@
       <c r="P32" s="1"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1834,7 +1831,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1857,7 +1854,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1876,7 +1873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1897,7 +1894,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1923,7 +1920,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1941,7 +1938,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1970,7 +1967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1988,7 +1985,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2020,7 +2017,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2069,7 +2066,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2081,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2094,7 +2091,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2109,7 +2106,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2122,7 +2119,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2137,7 +2134,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2150,7 +2147,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2162,7 +2159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2175,7 +2172,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2188,7 +2185,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2201,7 +2198,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2227,7 +2224,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2240,7 +2237,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2253,7 +2250,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2266,7 +2263,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2286,7 +2283,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2333,7 +2330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2350,7 +2347,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2379,7 +2376,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2396,7 +2393,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2414,7 +2411,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2454,7 +2451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2474,7 +2471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2492,7 +2489,7 @@
       </c>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2525,7 +2522,7 @@
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2538,7 +2535,7 @@
       </c>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2558,7 +2555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2575,7 +2572,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2587,7 +2584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2599,7 +2596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2619,18 +2616,18 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
         <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="H80" t="s">
         <v>56</v>
@@ -2639,10 +2636,10 @@
         <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2662,18 +2659,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
         <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H82" t="s">
         <v>56</v>
@@ -2682,10 +2679,10 @@
         <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2698,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2711,7 +2708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2727,7 +2724,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2743,7 +2740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2759,7 +2756,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2775,7 +2772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2788,7 +2785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2801,7 +2798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2817,7 +2814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2833,7 +2830,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2849,7 +2846,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2865,7 +2862,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2878,7 +2875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2891,7 +2888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2907,7 +2904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2923,7 +2920,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2939,7 +2936,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2955,7 +2952,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2968,7 +2965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2981,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2989,39 +2986,40 @@
       <c r="I103" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J102">
-    <sortState ref="A3:J102">
+  <autoFilter ref="A2:J102" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J102">
       <sortCondition ref="A2:A102"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="96.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="7" width="13.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.81640625" customWidth="1"/>
+    <col min="10" max="10" width="96.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>290</v>
       </c>
@@ -3035,7 +3033,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3067,7 +3065,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3079,7 +3077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3091,7 +3089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3106,7 +3104,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3121,7 +3119,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3139,7 +3137,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3157,7 +3155,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3175,7 +3173,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3193,7 +3191,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3211,7 +3209,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3229,7 +3227,7 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3247,7 +3245,7 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3265,7 +3263,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3280,7 +3278,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3295,7 +3293,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3310,7 +3308,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3325,7 +3323,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3346,7 +3344,7 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3364,7 +3362,7 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3397,7 +3395,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3415,7 +3413,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3430,7 +3428,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3448,7 +3446,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3463,7 +3461,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3496,7 +3494,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3514,7 +3512,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3532,7 +3530,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3548,7 +3546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3560,7 +3558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3577,7 +3575,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3589,7 +3587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3606,7 +3604,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3627,7 +3625,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3644,7 +3642,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3665,7 +3663,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3682,7 +3680,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3694,7 +3692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3711,7 +3709,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3723,7 +3721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3740,7 +3738,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3766,7 +3764,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3783,7 +3781,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3809,7 +3807,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3826,7 +3824,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3838,7 +3836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3856,7 +3854,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3875,7 +3873,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3892,7 +3890,7 @@
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3911,7 +3909,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3928,7 +3926,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3947,7 +3945,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3964,7 +3962,7 @@
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3983,7 +3981,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4000,7 +3998,7 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4019,7 +4017,7 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4034,7 +4032,7 @@
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4053,7 +4051,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4068,7 +4066,7 @@
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4087,7 +4085,7 @@
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4100,7 +4098,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4133,7 +4131,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4148,7 +4146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4163,7 +4161,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4178,7 +4176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4190,7 +4188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4205,7 +4203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4220,7 +4218,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4235,7 +4233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4250,7 +4248,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4265,7 +4263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4277,7 +4275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4292,7 +4290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4307,7 +4305,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4345,7 +4343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4356,7 +4354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4371,7 +4369,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4387,7 +4385,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4400,7 +4398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4416,7 +4414,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4431,7 +4429,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4444,7 +4442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4459,7 +4457,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4472,7 +4470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4485,7 +4483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4501,7 +4499,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4516,7 +4514,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4532,7 +4530,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4547,7 +4545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4563,7 +4561,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4576,7 +4574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4592,7 +4590,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4607,7 +4605,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4623,7 +4621,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4638,7 +4636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4654,7 +4652,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4667,28 +4665,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J102">
-    <sortState ref="A3:J102">
+  <autoFilter ref="A2:J102" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J102">
       <sortCondition ref="A2:A102"/>
     </sortState>
   </autoFilter>

--- a/SoMs/BW2099/BW2099_R1M1E1_IO_TABLE.xlsx
+++ b/SoMs/BW2099/BW2099_R1M1E1_IO_TABLE.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BrianLuxonis\Documents\GitHub\depthai-hardware\SoMs\BW2099\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB560F9-D081-4D55-8A13-BA1B1BF111A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7120" yWindow="3900" windowWidth="20810" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7125" yWindow="3900" windowWidth="20805" windowHeight="14430"/>
   </bookViews>
   <sheets>
     <sheet name="CONNECTOR A" sheetId="2" r:id="rId1"/>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="290">
   <si>
     <t>Pin #</t>
   </si>
@@ -266,9 +260,6 @@
     <t>WAKEUP</t>
   </si>
   <si>
-    <t>PD: 10kR/GND</t>
-  </si>
-  <si>
     <t>COM_AUX_IO2</t>
   </si>
   <si>
@@ -566,9 +557,6 @@
     <t xml:space="preserve">SoM system reset. Leave floating if unused. </t>
   </si>
   <si>
-    <t xml:space="preserve">Leave floating.  Any SGPIO pin can be used to wake up the SoM. </t>
-  </si>
-  <si>
     <t>spi2_cs_0</t>
   </si>
   <si>
@@ -903,12 +891,15 @@
   </si>
   <si>
     <t>2099EMB_R1M1E1 INTERFACE CONNECTOR B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Should be pulled low with PD: 10kR/GND. Any SGPIO pin can be used to wake up the SoM. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1288,34 +1279,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" customWidth="1"/>
-    <col min="10" max="10" width="96.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="96.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1327,7 +1318,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -1356,10 +1347,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1372,7 +1363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1385,7 +1376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1401,12 +1392,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1"/>
       <c r="H6" s="1"/>
@@ -1414,10 +1405,10 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1432,22 +1423,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1459,7 +1450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1471,7 +1462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1486,22 +1477,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1516,22 +1507,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1543,7 +1534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1555,7 +1546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1570,22 +1561,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1600,22 +1591,22 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1627,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1639,7 +1630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1654,22 +1645,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1684,22 +1675,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1711,7 +1702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1723,7 +1714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1738,7 +1729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1746,7 +1737,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>44</v>
@@ -1758,7 +1749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1773,7 +1764,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1787,7 +1778,7 @@
       <c r="P32" s="1"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1799,21 +1790,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -1831,7 +1822,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1839,7 +1830,7 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>55</v>
@@ -1854,7 +1845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1862,7 +1853,7 @@
         <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="1"/>
       <c r="H36" s="1"/>
@@ -1873,7 +1864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1881,7 +1872,7 @@
         <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" s="1"/>
       <c r="H37" t="s">
@@ -1894,15 +1885,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
@@ -1920,7 +1911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1935,18 +1926,18 @@
         <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
         <v>68</v>
@@ -1967,7 +1958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1982,18 +1973,18 @@
         <v>72</v>
       </c>
       <c r="J41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
@@ -2017,7 +2008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2025,48 +2016,46 @@
         <v>77</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2078,48 +2067,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J48" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2131,23 +2120,23 @@
         <v>11</v>
       </c>
       <c r="J50" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2159,119 +2148,119 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>64</v>
@@ -2280,45 +2269,45 @@
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E63" t="s">
         <v>86</v>
-      </c>
-      <c r="E63" t="s">
-        <v>87</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>64</v>
@@ -2330,41 +2319,41 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
         <v>90</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>91</v>
-      </c>
-      <c r="G65" t="s">
-        <v>92</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>64</v>
@@ -2376,140 +2365,140 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2522,7 +2511,7 @@
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2535,15 +2524,15 @@
       </c>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>44</v>
@@ -2552,27 +2541,27 @@
         <v>15</v>
       </c>
       <c r="J75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2584,7 +2573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2596,15 +2585,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H79" t="s">
         <v>56</v>
@@ -2613,21 +2602,21 @@
         <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D80" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s">
         <v>56</v>
@@ -2636,18 +2625,18 @@
         <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H81" t="s">
         <v>56</v>
@@ -2656,10 +2645,10 @@
         <v>15</v>
       </c>
       <c r="J81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2667,7 +2656,7 @@
         <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
         <v>76</v>
@@ -2679,10 +2668,10 @@
         <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2695,7 +2684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2708,12 +2697,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C85" s="1"/>
       <c r="H85" s="1"/>
@@ -2721,15 +2710,15 @@
         <v>11</v>
       </c>
       <c r="J85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C86" s="1"/>
       <c r="H86" s="1"/>
@@ -2737,15 +2726,15 @@
         <v>11</v>
       </c>
       <c r="J86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="1"/>
       <c r="H87" s="1"/>
@@ -2753,15 +2742,15 @@
         <v>11</v>
       </c>
       <c r="J87" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C88" s="1"/>
       <c r="H88" s="1"/>
@@ -2769,10 +2758,10 @@
         <v>11</v>
       </c>
       <c r="J88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2785,7 +2774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2798,12 +2787,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="1"/>
       <c r="H91" s="1"/>
@@ -2811,15 +2800,15 @@
         <v>11</v>
       </c>
       <c r="J91" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C92" s="1"/>
       <c r="H92" s="1"/>
@@ -2827,15 +2816,15 @@
         <v>11</v>
       </c>
       <c r="J92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C93" s="1"/>
       <c r="H93" s="1"/>
@@ -2843,15 +2832,15 @@
         <v>11</v>
       </c>
       <c r="J93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C94" s="1"/>
       <c r="H94" s="1"/>
@@ -2859,10 +2848,10 @@
         <v>11</v>
       </c>
       <c r="J94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2875,7 +2864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2888,12 +2877,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" s="1"/>
       <c r="H97" s="1"/>
@@ -2901,15 +2890,15 @@
         <v>11</v>
       </c>
       <c r="J97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" s="1"/>
       <c r="H98" s="1"/>
@@ -2917,15 +2906,15 @@
         <v>11</v>
       </c>
       <c r="J98" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="1"/>
       <c r="H99" s="1"/>
@@ -2933,15 +2922,15 @@
         <v>11</v>
       </c>
       <c r="J99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C100" s="1"/>
       <c r="H100" s="1"/>
@@ -2949,10 +2938,10 @@
         <v>11</v>
       </c>
       <c r="J100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2965,7 +2954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2978,7 +2967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2986,8 +2975,8 @@
       <c r="I103" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J102" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J102">
+  <autoFilter ref="A2:J102">
+    <sortState ref="A3:J102">
       <sortCondition ref="A2:A102"/>
     </sortState>
   </autoFilter>
@@ -3001,27 +2990,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
-    <col min="4" max="7" width="13.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.54296875" customWidth="1"/>
-    <col min="9" max="9" width="19.81640625" customWidth="1"/>
-    <col min="10" max="10" width="96.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="96.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="80.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3033,7 +3022,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3041,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -3062,10 +3051,10 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3077,7 +3066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3089,7 +3078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3104,7 +3093,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3119,151 +3108,151 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3278,7 +3267,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3293,7 +3282,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3308,7 +3297,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3323,214 +3312,214 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J26" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3546,7 +3535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3558,12 +3547,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3572,10 +3561,10 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3587,12 +3576,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3601,18 +3590,18 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D36" s="1"/>
       <c r="H36" t="s">
@@ -3622,15 +3611,15 @@
         <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3639,18 +3628,18 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D38" s="1"/>
       <c r="H38" t="s">
@@ -3660,15 +3649,15 @@
         <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3677,10 +3666,10 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3692,12 +3681,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3706,10 +3695,10 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3721,12 +3710,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3735,18 +3724,18 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -3761,15 +3750,15 @@
         <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3778,18 +3767,18 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>18</v>
@@ -3804,15 +3793,15 @@
         <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3821,10 +3810,10 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3836,12 +3825,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3850,35 +3839,35 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3886,35 +3875,35 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C52" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3922,35 +3911,35 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3958,35 +3947,35 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3994,98 +3983,98 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C58" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4098,85 +4087,85 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J65" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J67" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4188,82 +4177,82 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C70" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J71" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J73" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4275,64 +4264,64 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J77" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J79" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4343,7 +4332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4354,38 +4343,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J82" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J83" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4398,28 +4387,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J85" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
@@ -4429,7 +4418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4442,12 +4431,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
@@ -4457,7 +4446,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4470,7 +4459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4483,28 +4472,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J91" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
@@ -4514,28 +4503,28 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J93" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
@@ -4545,23 +4534,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J95" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4574,28 +4563,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J97" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
@@ -4605,28 +4594,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J99" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
@@ -4636,23 +4625,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J101" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4665,28 +4654,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J102" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J102">
+  <autoFilter ref="A2:J102">
+    <sortState ref="A3:J102">
       <sortCondition ref="A2:A102"/>
     </sortState>
   </autoFilter>

--- a/SoMs/BW2099/BW2099_R1M1E1_IO_TABLE.xlsx
+++ b/SoMs/BW2099/BW2099_R1M1E1_IO_TABLE.xlsx
@@ -263,9 +263,6 @@
     <t>COM_AUX_IO2</t>
   </si>
   <si>
-    <t xml:space="preserve">Auxiliary GPIO for cameras. Reserved for driving camera STROBE signal on Luxonis boards. </t>
-  </si>
-  <si>
     <t>5V</t>
   </si>
   <si>
@@ -894,6 +891,9 @@
   </si>
   <si>
     <t xml:space="preserve">Should be pulled low with PD: 10kR/GND. Any SGPIO pin can be used to wake up the SoM. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auxiliary GPIO for cameras sync/trigger. Reserved for interrupt FSIN (Frame sync input) for the cameras used. </t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1279,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,7 +1306,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -1347,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1"/>
       <c r="H6" s="1"/>
@@ -1405,7 +1405,7 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1428,14 +1428,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1482,14 +1482,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1512,14 +1512,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1566,14 +1566,14 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -1596,14 +1596,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -1650,14 +1650,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -1680,14 +1680,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>44</v>
@@ -1795,16 +1795,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" t="s">
         <v>48</v>
       </c>
       <c r="E34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
         <v>49</v>
@@ -1830,7 +1830,7 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>55</v>
@@ -1853,7 +1853,7 @@
         <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="1"/>
       <c r="H36" s="1"/>
@@ -1872,7 +1872,7 @@
         <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="1"/>
       <c r="H37" t="s">
@@ -1890,10 +1890,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
         <v>62</v>
@@ -1926,7 +1926,7 @@
         <v>67</v>
       </c>
       <c r="J39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1934,10 +1934,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
         <v>68</v>
@@ -1973,7 +1973,7 @@
         <v>72</v>
       </c>
       <c r="J41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1981,10 +1981,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
         <v>73</v>
@@ -2021,7 +2021,7 @@
         <v>72</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2032,14 +2032,14 @@
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2047,12 +2047,12 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2072,12 +2072,12 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2085,14 +2085,14 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2100,12 +2100,12 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>11</v>
       </c>
       <c r="J50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2128,12 +2128,12 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2153,12 +2153,12 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -2166,12 +2166,12 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2179,12 +2179,12 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2192,12 +2192,12 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -2205,12 +2205,12 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,12 +2218,12 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2231,12 +2231,12 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -2244,12 +2244,12 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -2257,10 +2257,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>64</v>
@@ -2269,7 +2269,7 @@
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -2277,20 +2277,20 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2298,16 +2298,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
         <v>85</v>
-      </c>
-      <c r="E63" t="s">
-        <v>86</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>64</v>
@@ -2324,16 +2324,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2341,19 +2341,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" t="s">
         <v>89</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>90</v>
-      </c>
-      <c r="G65" t="s">
-        <v>91</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>64</v>
@@ -2370,16 +2370,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2387,17 +2387,17 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2405,19 +2405,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -2425,19 +2425,19 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -2445,19 +2445,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -2465,13 +2465,13 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>15</v>
@@ -2483,19 +2483,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2529,10 +2529,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>44</v>
@@ -2541,7 +2541,7 @@
         <v>15</v>
       </c>
       <c r="J75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2549,16 +2549,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2590,10 +2590,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H79" t="s">
         <v>56</v>
@@ -2602,7 +2602,7 @@
         <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2610,13 +2610,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s">
         <v>56</v>
@@ -2625,7 +2625,7 @@
         <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -2633,10 +2633,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H81" t="s">
         <v>56</v>
@@ -2645,7 +2645,7 @@
         <v>15</v>
       </c>
       <c r="J81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D82" t="s">
         <v>76</v>
@@ -2668,7 +2668,7 @@
         <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -2702,7 +2702,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C85" s="1"/>
       <c r="H85" s="1"/>
@@ -2710,7 +2710,7 @@
         <v>11</v>
       </c>
       <c r="J85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -2718,7 +2718,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C86" s="1"/>
       <c r="H86" s="1"/>
@@ -2726,7 +2726,7 @@
         <v>11</v>
       </c>
       <c r="J86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C87" s="1"/>
       <c r="H87" s="1"/>
@@ -2742,7 +2742,7 @@
         <v>11</v>
       </c>
       <c r="J87" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -2750,7 +2750,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C88" s="1"/>
       <c r="H88" s="1"/>
@@ -2758,7 +2758,7 @@
         <v>11</v>
       </c>
       <c r="J88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -2792,7 +2792,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="1"/>
       <c r="H91" s="1"/>
@@ -2800,7 +2800,7 @@
         <v>11</v>
       </c>
       <c r="J91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="1"/>
       <c r="H92" s="1"/>
@@ -2816,7 +2816,7 @@
         <v>11</v>
       </c>
       <c r="J92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -2824,7 +2824,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C93" s="1"/>
       <c r="H93" s="1"/>
@@ -2832,7 +2832,7 @@
         <v>11</v>
       </c>
       <c r="J93" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -2840,7 +2840,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C94" s="1"/>
       <c r="H94" s="1"/>
@@ -2848,7 +2848,7 @@
         <v>11</v>
       </c>
       <c r="J94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="1"/>
       <c r="H97" s="1"/>
@@ -2890,7 +2890,7 @@
         <v>11</v>
       </c>
       <c r="J97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C98" s="1"/>
       <c r="H98" s="1"/>
@@ -2906,7 +2906,7 @@
         <v>11</v>
       </c>
       <c r="J98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" s="1"/>
       <c r="H99" s="1"/>
@@ -2922,7 +2922,7 @@
         <v>11</v>
       </c>
       <c r="J99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -2930,7 +2930,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C100" s="1"/>
       <c r="H100" s="1"/>
@@ -2938,7 +2938,7 @@
         <v>11</v>
       </c>
       <c r="J100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -3051,7 +3051,7 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -3113,14 +3113,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N7" s="1"/>
       <c r="T7" s="1"/>
@@ -3131,14 +3131,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N8" s="1"/>
       <c r="T8" s="1"/>
@@ -3149,14 +3149,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N9" s="1"/>
       <c r="T9" s="1"/>
@@ -3167,14 +3167,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N10" s="1"/>
       <c r="T10" s="1"/>
@@ -3185,14 +3185,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N11" s="1"/>
       <c r="T11" s="1"/>
@@ -3203,14 +3203,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N12" s="1"/>
       <c r="T12" s="1"/>
@@ -3221,14 +3221,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N13" s="1"/>
       <c r="T13" s="1"/>
@@ -3239,14 +3239,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N14" s="1"/>
       <c r="T14" s="1"/>
@@ -3317,17 +3317,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N19" s="1"/>
       <c r="T19" s="1"/>
@@ -3338,14 +3338,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N20" s="1"/>
       <c r="T20" s="1"/>
@@ -3356,17 +3356,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -3374,14 +3374,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -3389,17 +3389,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -3407,14 +3407,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -3422,17 +3422,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -3440,14 +3440,14 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -3455,17 +3455,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -3473,14 +3473,14 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -3488,17 +3488,17 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -3506,17 +3506,17 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3561,7 +3561,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3581,7 +3581,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3590,7 +3590,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3598,10 +3598,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D36" s="1"/>
       <c r="H36" t="s">
@@ -3611,7 +3611,7 @@
         <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3619,7 +3619,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3628,7 +3628,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3636,10 +3636,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D38" s="1"/>
       <c r="H38" t="s">
@@ -3649,7 +3649,7 @@
         <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3666,7 +3666,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -3686,7 +3686,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3695,7 +3695,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3715,7 +3715,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3724,7 +3724,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3732,10 +3732,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -3750,7 +3750,7 @@
         <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3758,7 +3758,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3767,7 +3767,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -3775,10 +3775,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>18</v>
@@ -3793,7 +3793,7 @@
         <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -3801,7 +3801,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -3810,7 +3810,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -3830,7 +3830,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3839,7 +3839,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K49" s="1"/>
     </row>
@@ -3848,17 +3848,17 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" t="s">
         <v>214</v>
-      </c>
-      <c r="C50" t="s">
-        <v>215</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K50" s="1"/>
     </row>
@@ -3867,7 +3867,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -3875,7 +3875,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K51" s="1"/>
     </row>
@@ -3884,17 +3884,17 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K52" s="1"/>
     </row>
@@ -3903,7 +3903,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -3911,7 +3911,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K53" s="1"/>
     </row>
@@ -3920,17 +3920,17 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K54" s="1"/>
     </row>
@@ -3939,7 +3939,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -3947,7 +3947,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K55" s="1"/>
     </row>
@@ -3956,17 +3956,17 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K56" s="1"/>
     </row>
@@ -3975,7 +3975,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -3983,7 +3983,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K57" s="1"/>
     </row>
@@ -3992,17 +3992,17 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K58" s="1"/>
     </row>
@@ -4011,13 +4011,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K59" s="1"/>
     </row>
@@ -4026,17 +4026,17 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K60" s="1"/>
     </row>
@@ -4045,13 +4045,13 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K61" s="1"/>
     </row>
@@ -4060,17 +4060,17 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K62" s="1"/>
     </row>
@@ -4092,17 +4092,17 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -4110,14 +4110,14 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -4125,10 +4125,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66" s="1" t="s">
@@ -4140,14 +4140,14 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -4155,10 +4155,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="1" t="s">
@@ -4182,10 +4182,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="1" t="s">
@@ -4197,14 +4197,14 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4212,10 +4212,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H72" s="2"/>
       <c r="I72" s="1" t="s">
@@ -4227,14 +4227,14 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H73" s="2"/>
       <c r="I73" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J73" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4242,10 +4242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="1" t="s">
@@ -4269,10 +4269,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="1" t="s">
@@ -4284,14 +4284,14 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4299,12 +4299,12 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4312,13 +4312,13 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J79" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4348,14 +4348,14 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J82" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4363,15 +4363,15 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4392,15 +4392,15 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J85" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4408,7 +4408,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
@@ -4436,7 +4436,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
@@ -4477,15 +4477,15 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J91" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -4493,7 +4493,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1" t="s">
@@ -4508,15 +4508,15 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
@@ -4539,15 +4539,15 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -4568,15 +4568,15 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4584,7 +4584,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
@@ -4599,15 +4599,15 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -4615,7 +4615,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
@@ -4630,15 +4630,15 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J101" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
